--- a/DDAf_2022_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -115,7 +115,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -157,13 +157,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -181,7 +181,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -250,7 +250,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -262,7 +262,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -364,7 +364,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -382,7 +382,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -400,7 +400,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="172">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
   <si>
     <t>Tableau 13 : Infrastructure de communications</t>
   </si>
@@ -1329,11 +1326,9 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1345,42 +1340,42 @@
     </row>
     <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="12">
         <v>0.355605</v>
@@ -1404,15 +1399,15 @@
         <v>61</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="16">
         <v>1.7765200000000001</v>
@@ -1441,10 +1436,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="21">
         <v>0.71123400000000003</v>
@@ -1456,13 +1451,13 @@
         <v>93.527299999999997</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="21">
         <v>30</v>
@@ -1473,10 +1468,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="21">
         <v>0.273345</v>
@@ -1505,10 +1500,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="21">
         <v>6.2684599999999993E-2</v>
@@ -1537,10 +1532,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="21">
         <v>0.23725199999999999</v>
@@ -1569,10 +1564,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="21">
         <v>2.5310600000000001</v>
@@ -1590,7 +1585,7 @@
         <v>66.215800000000002</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="21">
         <v>75</v>
@@ -1601,10 +1596,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="21">
         <v>2.3996900000000001</v>
@@ -1633,10 +1628,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="16">
         <v>0.249918</v>
@@ -1665,10 +1660,10 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="25">
         <v>1.40632</v>
@@ -1697,10 +1692,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="30">
         <v>1.08770773011448</v>
@@ -1729,10 +1724,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="21">
         <v>3.5211300000000001E-2</v>
@@ -1761,10 +1756,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="21">
         <v>7.4436100000000005E-2</v>
@@ -1793,10 +1788,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="21">
         <v>1.30294E-2</v>
@@ -1808,13 +1803,13 @@
         <v>33.619199999999999</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="22">
         <v>5.0293099999999997</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="21">
         <v>17.920000000000002</v>
@@ -1825,10 +1820,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>42</v>
       </c>
       <c r="C17" s="12">
         <v>1.2534099999999999E-3</v>
@@ -1857,10 +1852,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="12">
         <v>1.05553E-2</v>
@@ -1872,13 +1867,13 @@
         <v>98.9298</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="12">
         <v>64.5</v>
@@ -1889,10 +1884,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="C19" s="16">
         <v>5.4955500000000001E-3</v>
@@ -1904,7 +1899,7 @@
         <v>42.773299999999999</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="17">
         <v>19.529800000000002</v>
@@ -1921,10 +1916,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="12">
         <v>0.123761</v>
@@ -1936,27 +1931,27 @@
         <v>44.8583</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>50</v>
       </c>
       <c r="C21" s="12">
         <v>1.3730599999999999</v>
@@ -1974,7 +1969,7 @@
         <v>94.3001</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="12">
         <v>35</v>
@@ -1985,10 +1980,10 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="C22" s="21">
         <v>0.73781699999999995</v>
@@ -2009,18 +2004,18 @@
         <v>2317</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="30">
         <v>4.047421683908E-2</v>
@@ -2049,10 +2044,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="21">
         <v>0.183943</v>
@@ -2081,10 +2076,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="21">
         <v>2.6600700000000002</v>
@@ -2102,21 +2097,21 @@
         <v>23.624600000000001</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="21">
         <v>10.37</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="21">
         <v>2.9300699999999999E-2</v>
@@ -2128,27 +2123,27 @@
         <v>20.364000000000001</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="C27" s="21">
         <v>5.9163599999999997E-2</v>
@@ -2160,13 +2155,13 @@
         <v>37.2181</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="21">
         <v>69.94</v>
@@ -2177,10 +2172,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>63</v>
       </c>
       <c r="C28" s="21">
         <v>0.72286300000000003</v>
@@ -2209,10 +2204,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="21">
         <v>0.103612</v>
@@ -2224,13 +2219,13 @@
         <v>34.142800000000001</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="21">
         <v>66.989999999999995</v>
@@ -2241,10 +2236,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="21">
         <v>21.638500000000001</v>
@@ -2273,10 +2268,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="C31" s="21">
         <v>6.0974E-2</v>
@@ -2305,10 +2300,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="21">
         <v>20.2851</v>
@@ -2332,15 +2327,15 @@
         <v>75.64</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="C33" s="21">
         <v>0.67173099999999997</v>
@@ -2352,13 +2347,13 @@
         <v>48.796399999999998</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" s="21">
         <v>75</v>
@@ -2369,10 +2364,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="16">
         <v>2.3414899999999999E-3</v>
@@ -2384,7 +2379,7 @@
         <v>20.086300000000001</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="17">
         <v>5.9495899999999997</v>
@@ -2393,7 +2388,7 @@
         <v>800</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" s="17">
         <v>4.9471340000000001</v>
@@ -2401,10 +2396,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="21">
         <v>7.4681499999999998E-2</v>
@@ -2422,21 +2417,21 @@
         <v>37.934800000000003</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="21">
         <v>34</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="21">
         <v>1.5293600000000001</v>
@@ -2454,7 +2449,7 @@
         <v>9.7916100000000004</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="21">
         <v>28</v>
@@ -2465,10 +2460,10 @@
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="21">
         <v>2.75667E-2</v>
@@ -2483,10 +2478,10 @@
         <v>0.172787</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="21">
         <v>70</v>
@@ -2497,10 +2492,10 @@
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="30">
         <v>0.47974065764141</v>
@@ -2529,10 +2524,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>84</v>
       </c>
       <c r="C39" s="12">
         <v>7.2553900000000002</v>
@@ -2561,10 +2556,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="21">
         <v>6.6851500000000001</v>
@@ -2593,10 +2588,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="12">
         <v>4.8323</v>
@@ -2608,13 +2603,13 @@
         <v>91.479299999999995</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" s="12">
         <v>83.59</v>
@@ -2625,10 +2620,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="34" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="C42" s="12">
         <v>0.30027399999999999</v>
@@ -2646,10 +2641,10 @@
         <v>55.530500000000004</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" s="13">
         <v>31.663229999999999</v>
@@ -2657,10 +2652,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>92</v>
       </c>
       <c r="C43" s="21">
         <v>4.3092899999999998</v>
@@ -2689,10 +2684,10 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>94</v>
       </c>
       <c r="C44" s="21">
         <v>8.7711000000000006</v>
@@ -2721,10 +2716,10 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="30">
         <v>6.2954176471777501</v>
@@ -2753,10 +2748,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>97</v>
       </c>
       <c r="C46" s="21">
         <v>0.23538400000000001</v>
@@ -2785,10 +2780,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="C47" s="21">
         <v>6.9959400000000005E-2</v>
@@ -2817,10 +2812,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="C48" s="21">
         <v>2.8793600000000001</v>
@@ -2844,15 +2839,15 @@
         <v>60.84</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="C49" s="21">
         <v>0.70172900000000005</v>
@@ -2881,10 +2876,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="21">
         <v>0.19442200000000001</v>
@@ -2896,13 +2891,13 @@
         <v>133.97200000000001</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I50" s="21">
         <v>54.15</v>
@@ -2913,10 +2908,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="C51" s="16">
         <v>0.19756000000000001</v>
@@ -2945,10 +2940,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="21">
         <v>9.3391199999999994E-3</v>
@@ -2960,7 +2955,7 @@
         <v>100.797</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" s="22">
         <v>23.165500000000002</v>
@@ -2977,10 +2972,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>111</v>
       </c>
       <c r="C53" s="21">
         <v>6.4237199999999994E-2</v>
@@ -2992,7 +2987,7 @@
         <v>82.792599999999993</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" s="22">
         <v>36.709499999999998</v>
@@ -3004,15 +2999,15 @@
         <v>46</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>113</v>
       </c>
       <c r="C54" s="21">
         <v>0.19139900000000001</v>
@@ -3024,13 +3019,13 @@
         <v>56.569000000000003</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" s="21">
         <v>48.94</v>
@@ -3041,10 +3036,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>115</v>
       </c>
       <c r="C55" s="21">
         <v>0.63397400000000004</v>
@@ -3073,10 +3068,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="C56" s="21">
         <v>4.0041899999999998E-2</v>
@@ -3088,13 +3083,13 @@
         <v>40.638500000000001</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I56" s="21">
         <v>14.93</v>
@@ -3105,10 +3100,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="34" t="s">
         <v>118</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>119</v>
       </c>
       <c r="C57" s="12">
         <v>3.7761400000000001E-2</v>
@@ -3137,10 +3132,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="C58" s="21">
         <v>0.81882999999999995</v>
@@ -3158,7 +3153,7 @@
         <v>54.245699999999999</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I58" s="21">
         <v>75</v>
@@ -3169,13 +3164,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="20" t="s">
-        <v>123</v>
-      </c>
       <c r="C59" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="21">
         <v>9</v>
@@ -3201,10 +3196,10 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="C60" s="16">
         <v>0.33154600000000001</v>
@@ -3234,7 +3229,7 @@
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="30">
         <v>0.18061398839612999</v>
@@ -3264,7 +3259,7 @@
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="35"/>
       <c r="B62" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="37">
         <v>1.3260608839632499</v>
@@ -3294,7 +3289,7 @@
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="35"/>
       <c r="B63" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="37">
         <v>16.567567411308598</v>
@@ -3324,7 +3319,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="40"/>
       <c r="B64" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="42">
         <v>12.7880552103795</v>
@@ -3354,7 +3349,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="40"/>
       <c r="B65" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="46">
         <v>11.984707429938499</v>
@@ -3384,7 +3379,7 @@
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="40"/>
       <c r="B66" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="50">
         <v>13.938817736255199</v>
@@ -3414,7 +3409,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="40"/>
       <c r="B67" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="46">
         <v>1.5834812746609901</v>
@@ -3444,7 +3439,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="40"/>
       <c r="B68" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="46">
         <v>1.68526169896082</v>
@@ -3474,7 +3469,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="40"/>
       <c r="B69" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="46">
         <v>0.67962811831887004</v>
@@ -3504,7 +3499,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="40"/>
       <c r="B70" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="46">
         <v>9.243463650139E-2</v>
@@ -3534,7 +3529,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="40"/>
       <c r="B71" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="46">
         <v>0.18061398839612999</v>
@@ -3564,7 +3559,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="40"/>
       <c r="B72" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="46">
         <v>0.21949166168133999</v>
@@ -3594,7 +3589,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="40"/>
       <c r="B73" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="46">
         <v>0.89346218405275002</v>
@@ -3624,7 +3619,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="40"/>
       <c r="B74" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="46">
         <v>5.9122996746485104</v>
@@ -3654,7 +3649,7 @@
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="40"/>
       <c r="B75" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="50">
         <v>0.31003572214774</v>
@@ -3684,7 +3679,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="40"/>
       <c r="B76" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="46">
         <v>5.9441196551391799</v>
@@ -3714,7 +3709,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="40"/>
       <c r="B77" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="46">
         <v>13.782742017111699</v>
@@ -3744,7 +3739,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="40"/>
       <c r="B78" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="46">
         <v>34.456363306497401</v>
@@ -3774,7 +3769,7 @@
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="40"/>
       <c r="B79" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="50">
         <v>31.327246742161101</v>
@@ -3804,7 +3799,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="40"/>
       <c r="B80" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="46">
         <v>1.17373392285516</v>
@@ -3834,7 +3829,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="40"/>
       <c r="B81" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="46">
         <v>15.1853603294443</v>
@@ -3864,7 +3859,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="40"/>
       <c r="B82" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="46">
         <v>1.37427250952073</v>
@@ -3894,7 +3889,7 @@
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="40"/>
       <c r="B83" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="50">
         <v>16.679523705065598</v>
@@ -3924,7 +3919,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="40"/>
       <c r="B84" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="46">
         <v>0.10109938025876999</v>
@@ -3954,7 +3949,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="40"/>
       <c r="B85" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" s="46">
         <v>2.1953592888767299</v>
@@ -3984,7 +3979,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="40"/>
       <c r="B86" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="46">
         <v>2.10077686693832</v>
@@ -4014,7 +4009,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="40"/>
       <c r="B87" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="46">
         <v>3.1082010308930901</v>
@@ -4044,7 +4039,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="40"/>
       <c r="B88" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="46">
         <v>2.85475549241752</v>
@@ -4074,7 +4069,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="40"/>
       <c r="B89" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="46">
         <v>22.887699028254598</v>
@@ -4104,7 +4099,7 @@
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="40"/>
       <c r="B90" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="50">
         <v>34.395097562404501</v>
@@ -4134,7 +4129,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="40"/>
       <c r="B91" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="46">
         <v>0.26553791998656001</v>
@@ -4164,7 +4159,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="40"/>
       <c r="B92" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="46">
         <v>3.4232397722919901</v>
@@ -4194,7 +4189,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="40"/>
       <c r="B93" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="46">
         <v>6.33431434043609</v>
@@ -4224,7 +4219,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="40"/>
       <c r="B94" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="46">
         <v>6.2327229556581001</v>
@@ -4254,7 +4249,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="40"/>
       <c r="B95" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="46">
         <v>0.16677481642972999</v>
@@ -4284,7 +4279,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="40"/>
       <c r="B96" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C96" s="50">
         <v>6.4307619299334897</v>
@@ -4314,7 +4309,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="40"/>
       <c r="B97" s="45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" s="46">
         <v>0.29511134481214002</v>
@@ -4344,7 +4339,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="40"/>
       <c r="B98" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C98" s="46">
         <v>4.29585387230519</v>
@@ -4374,7 +4369,7 @@
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="40"/>
       <c r="B99" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" s="50">
         <v>2.0107843501948199</v>
@@ -4415,7 +4410,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B101" s="57"/>
       <c r="C101" s="58"/>
@@ -4428,7 +4423,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B102" s="57"/>
       <c r="C102" s="58"/>
@@ -4441,7 +4436,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B103" s="57"/>
       <c r="C103" s="58"/>
@@ -4454,7 +4449,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B104" s="57"/>
       <c r="C104" s="58"/>
@@ -4467,7 +4462,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="57"/>
       <c r="C105" s="58"/>
@@ -4500,7 +4495,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" s="58"/>
       <c r="D108" s="58"/>
@@ -4522,7 +4517,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="58"/>
       <c r="D110" s="58"/>
@@ -4534,7 +4529,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="58"/>
       <c r="D111" s="58"/>
@@ -4556,7 +4551,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="58"/>
       <c r="D113" s="58"/>
@@ -4568,7 +4563,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C114" s="58"/>
       <c r="D114" s="58"/>
@@ -4590,7 +4585,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="172">
   <si>
     <t>Tableau 13 : Infrastructure de communications</t>
   </si>
@@ -490,19 +490,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -517,7 +520,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Union internationale des télécommunications - Base de données en ligne des indicateurs TIC (récupéré le 19/11/2021), GSMA Intelligence (mise à jour en juin 2020), Gallup World Poll (consulté le 15 décembre 2019).</t>
@@ -4162,19 +4165,19 @@
         <v>154</v>
       </c>
       <c r="C92" s="46">
-        <v>3.4232397722919901</v>
+        <v>3.4248235639514601</v>
       </c>
       <c r="D92" s="46">
-        <v>19.869166826845401</v>
+        <v>19.864163667947299</v>
       </c>
       <c r="E92" s="46">
-        <v>92.809222457067904</v>
+        <v>92.812957849476305</v>
       </c>
       <c r="F92" s="46">
-        <v>1.3270471916140301</v>
+        <v>1.32711863730011</v>
       </c>
       <c r="G92" s="47">
-        <v>49.286327126910201</v>
+        <v>49.050560787616</v>
       </c>
       <c r="H92" s="48">
         <v>1168789.3309869701</v>
@@ -4279,7 +4282,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="40"/>
       <c r="B96" s="49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="50">
         <v>6.4307619299334897</v>
@@ -4309,7 +4312,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="40"/>
       <c r="B97" s="45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" s="46">
         <v>0.29511134481214002</v>
@@ -4339,7 +4342,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="40"/>
       <c r="B98" s="45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C98" s="46">
         <v>4.29585387230519</v>
@@ -4369,7 +4372,7 @@
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="40"/>
       <c r="B99" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C99" s="50">
         <v>2.0107843501948199</v>
@@ -4410,7 +4413,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="57"/>
       <c r="C101" s="58"/>
@@ -4423,7 +4426,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B102" s="57"/>
       <c r="C102" s="58"/>
@@ -4436,7 +4439,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B103" s="57"/>
       <c r="C103" s="58"/>
@@ -4449,7 +4452,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B104" s="57"/>
       <c r="C104" s="58"/>
@@ -4462,7 +4465,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B105" s="57"/>
       <c r="C105" s="58"/>
@@ -4495,7 +4498,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C108" s="58"/>
       <c r="D108" s="58"/>
@@ -4517,7 +4520,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C110" s="58"/>
       <c r="D110" s="58"/>
@@ -4529,7 +4532,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C111" s="58"/>
       <c r="D111" s="58"/>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C113" s="58"/>
       <c r="D113" s="58"/>
@@ -4563,7 +4566,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C114" s="58"/>
       <c r="D114" s="58"/>

--- a/DDAf_2022_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
     <t>Source : Union internationale des télécommunications - Base de données en ligne des indicateurs TIC (récupéré le 19/11/2021), GSMA Intelligence (mise à jour en juin 2020), Gallup World Poll (consulté le 15 décembre 2019).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -4588,7 +4588,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
